--- a/SubRES_TMPL/SubRES_ELC_DEM.xlsx
+++ b/SubRES_TMPL/SubRES_ELC_DEM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\I3p0_ELC_12TS_1REG_2020.11.18\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1329E7DD-57D2-4A33-86BA-D6C97E1DBD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865B39AE-B633-49C5-A4D0-958ABDA3F442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="34380" windowHeight="13780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7390" yWindow="140" windowWidth="24800" windowHeight="12560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_DEMELC" sheetId="19" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
   <si>
     <t>Unit</t>
   </si>
@@ -195,10 +195,6 @@
   </si>
   <si>
     <t>DAYNITE</t>
-    <phoneticPr fontId="71" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANNUAL</t>
     <phoneticPr fontId="71" type="noConversion"/>
   </si>
   <si>
@@ -13323,7 +13319,7 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
@@ -13609,7 +13605,7 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -13688,17 +13684,17 @@
         <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -13804,10 +13800,10 @@
         <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>33</v>
@@ -13816,7 +13812,7 @@
         <v>45</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -13905,16 +13901,16 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -13931,21 +13927,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4935B8855D2CD4A84AB51A7B8A3B83B" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6046aa80c6137ea7cd300941e6de6139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="795b6ce3-4d29-4fa5-96ed-ea1b36830f13" xmlns:ns3="424ab569-3a9e-4e02-994b-fd1ed8ea43ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8866ff8f472ea66287faba2f38092fc5" ns2:_="" ns3:_="">
     <xsd:import namespace="795b6ce3-4d29-4fa5-96ed-ea1b36830f13"/>
@@ -14124,24 +14105,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2081B585-D9F5-409F-9C58-1AAF8BF71650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851BA114-00C8-4AA6-82E9-E7B647F44889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F686AAB-D1BF-4DFE-9F49-6F6D04D4E193}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14158,4 +14137,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851BA114-00C8-4AA6-82E9-E7B647F44889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2081B585-D9F5-409F-9C58-1AAF8BF71650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_ELC_DEM.xlsx
+++ b/SubRES_TMPL/SubRES_ELC_DEM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\I3p0_ELC_12TS_1REG_2020.11.18\SubRES_Tmpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\2-NewVeda\UCC\TIMES-Ireland-8760\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865B39AE-B633-49C5-A4D0-958ABDA3F442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23BB7C8-FF55-4A60-B02C-5241D1831F97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7390" yWindow="140" windowWidth="24800" windowHeight="12560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_DEMELC" sheetId="19" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
   <si>
     <t>Unit</t>
   </si>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="71" type="noConversion"/>
   </si>
   <si>
-    <t>DAYNITE</t>
-    <phoneticPr fontId="71" type="noConversion"/>
-  </si>
-  <si>
     <t>DEMH2T</t>
     <phoneticPr fontId="71" type="noConversion"/>
   </si>
@@ -219,34 +215,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="15">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
-    <numFmt numFmtId="180" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
-    <numFmt numFmtId="182" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
-    <numFmt numFmtId="183" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="185" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="186" formatCode="\(##\);\(##\)"/>
-    <numFmt numFmtId="187" formatCode="#,##0.0"/>
-    <numFmt numFmtId="188" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
+    <numFmt numFmtId="172" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
+    <numFmt numFmtId="173" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="175" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="176" formatCode="\(##\);\(##\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="72">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -578,7 +574,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="186"/>
       <scheme val="minor"/>
@@ -681,14 +677,14 @@
       <b/>
       <sz val="11"/>
       <color indexed="12"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -699,19 +695,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,6 +947,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,7 +1494,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1521,7 +1523,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -3148,78 +3150,78 @@
     <xf numFmtId="0" fontId="31" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="12">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4494,7 +4496,7 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -4560,9 +4562,9 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
@@ -4706,7 +4708,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4779,26 +4781,26 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="56" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="56" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="57" fillId="31" borderId="15">
+    <xf numFmtId="177" fontId="57" fillId="31" borderId="15">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="58" fillId="31" borderId="15">
+    <xf numFmtId="169" fontId="58" fillId="31" borderId="15">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="59" fillId="32" borderId="15">
+    <xf numFmtId="177" fontId="59" fillId="32" borderId="15">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="16" applyBorder="0">
@@ -4820,7 +4822,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -4897,8 +4899,8 @@
     <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -5216,16 +5218,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="63" fillId="39" borderId="17"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="18"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -5291,8 +5293,8 @@
     <xf numFmtId="0" fontId="30" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -5563,13 +5565,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="18" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="57" fillId="31" borderId="26">
+    <xf numFmtId="177" fontId="57" fillId="31" borderId="26">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="58" fillId="31" borderId="26">
+    <xf numFmtId="169" fontId="58" fillId="31" borderId="26">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="59" fillId="32" borderId="26">
+    <xf numFmtId="177" fontId="59" fillId="32" borderId="26">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="27" applyBorder="0">
@@ -5590,7 +5592,7 @@
     <xf numFmtId="0" fontId="2" fillId="38" borderId="19">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -5650,8 +5652,8 @@
     <xf numFmtId="0" fontId="30" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -5939,8 +5941,8 @@
     <xf numFmtId="49" fontId="45" fillId="0" borderId="19" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5968,11 +5970,11 @@
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
@@ -5981,7 +5983,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5993,10 +5995,10 @@
     <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -6168,12 +6170,12 @@
     <xf numFmtId="0" fontId="14" fillId="23" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -6237,8 +6239,8 @@
     <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -6443,13 +6445,13 @@
     <xf numFmtId="49" fontId="2" fillId="29" borderId="14">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="57" fillId="31" borderId="15">
+    <xf numFmtId="177" fontId="57" fillId="31" borderId="15">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="58" fillId="31" borderId="15">
+    <xf numFmtId="169" fontId="58" fillId="31" borderId="15">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="59" fillId="32" borderId="15">
+    <xf numFmtId="177" fontId="59" fillId="32" borderId="15">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="16" applyBorder="0">
@@ -6470,68 +6472,68 @@
     <xf numFmtId="0" fontId="2" fillId="38" borderId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -6751,12 +6753,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6920,13 +6922,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="18" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="57" fillId="31" borderId="38">
+    <xf numFmtId="177" fontId="57" fillId="31" borderId="38">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="58" fillId="31" borderId="38">
+    <xf numFmtId="169" fontId="58" fillId="31" borderId="38">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="59" fillId="32" borderId="38">
+    <xf numFmtId="177" fontId="59" fillId="32" borderId="38">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="39" applyBorder="0">
@@ -7301,27 +7303,27 @@
     <xf numFmtId="0" fontId="27" fillId="25" borderId="30"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="41" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="68" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="67" fillId="43" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="69" fillId="43" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="67" fillId="43" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="69" fillId="43" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="69" fillId="43" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="43" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="69" fillId="43" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="43" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="44" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="66" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="70" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="69" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="66" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="70" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="69" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="41" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7330,6 +7332,7 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="70" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5514">
     <cellStyle name="20% - 1. jelölőszín" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -13319,20 +13322,20 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="1"/>
-    <col min="2" max="2" width="19.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.08984375" style="1"/>
-    <col min="9" max="9" width="22.36328125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="22.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -13347,7 +13350,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:9" ht="14.5" thickBot="1">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
@@ -13373,7 +13376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15">
+    <row r="4" spans="2:9" ht="15.75">
       <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
@@ -13413,9 +13416,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="G5" s="20"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
@@ -13432,7 +13433,7 @@
     <row r="7" spans="2:9">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="2:9" ht="14.5">
+    <row r="8" spans="2:9">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -13444,7 +13445,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:9" ht="14.5" thickBot="1">
+    <row r="9" spans="2:9" ht="15.75" thickBot="1">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -13470,7 +13471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15">
+    <row r="10" spans="2:9" ht="15.75">
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -13508,7 +13509,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:9" ht="14.5">
+    <row r="12" spans="2:9">
       <c r="B12" s="12" t="s">
         <v>42</v>
       </c>
@@ -13524,9 +13525,7 @@
       <c r="F12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
@@ -13535,7 +13534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15.5" thickBot="1">
+    <row r="16" spans="2:9" ht="16.5" thickBot="1">
       <c r="B16" s="17" t="s">
         <v>1</v>
       </c>
@@ -13605,14 +13604,14 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -13627,7 +13626,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:9" ht="14.5" thickBot="1">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
@@ -13653,7 +13652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15">
+    <row r="4" spans="2:9" ht="15.75">
       <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
@@ -13684,18 +13683,16 @@
         <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="G5" s="20"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
@@ -13719,7 +13716,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="14.5">
+    <row r="8" spans="2:9">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -13731,7 +13728,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:9" ht="14.5" thickBot="1">
+    <row r="9" spans="2:9" ht="15.75" thickBot="1">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -13757,7 +13754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15">
+    <row r="10" spans="2:9" ht="15.75">
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -13795,15 +13792,15 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:9" ht="14.5">
+    <row r="12" spans="2:9">
       <c r="B12" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>33</v>
@@ -13811,9 +13808,7 @@
       <c r="F12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
@@ -13849,7 +13844,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" ht="15.5" thickBot="1">
+    <row r="16" spans="2:9" ht="16.5" thickBot="1">
       <c r="B16" s="17" t="s">
         <v>1</v>
       </c>
@@ -13901,16 +13896,16 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -13927,6 +13922,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4935B8855D2CD4A84AB51A7B8A3B83B" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6046aa80c6137ea7cd300941e6de6139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="795b6ce3-4d29-4fa5-96ed-ea1b36830f13" xmlns:ns3="424ab569-3a9e-4e02-994b-fd1ed8ea43ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8866ff8f472ea66287faba2f38092fc5" ns2:_="" ns3:_="">
     <xsd:import namespace="795b6ce3-4d29-4fa5-96ed-ea1b36830f13"/>
@@ -14105,15 +14109,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -14121,6 +14116,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851BA114-00C8-4AA6-82E9-E7B647F44889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F686AAB-D1BF-4DFE-9F49-6F6D04D4E193}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14139,14 +14142,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851BA114-00C8-4AA6-82E9-E7B647F44889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2081B585-D9F5-409F-9C58-1AAF8BF71650}">
   <ds:schemaRefs>
